--- a/需求响应/data/PrivateCar_example.xlsx
+++ b/需求响应/data/PrivateCar_example.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7660F7-BE96-4E93-B9F3-5655D6CB1088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40C3744-7280-4230-AADF-CD3CB5DA32E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1875" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>Car_area_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_charge_lambda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,15 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,19 +495,22 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,19 +530,19 @@
         <v>16</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -539,19 +551,22 @@
         <v>1</v>
       </c>
       <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.1</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -571,19 +586,19 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -592,19 +607,22 @@
         <v>1</v>
       </c>
       <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.4</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -624,19 +642,19 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -645,19 +663,22 @@
         <v>1</v>
       </c>
       <c r="N4">
+        <v>0.9</v>
+      </c>
+      <c r="O4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.1</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.4</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -677,19 +698,19 @@
         <v>18</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -698,19 +719,22 @@
         <v>1</v>
       </c>
       <c r="N5">
+        <v>0.9</v>
+      </c>
+      <c r="O5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.1</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.4</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -730,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -751,19 +775,22 @@
         <v>1</v>
       </c>
       <c r="N6">
+        <v>0.9</v>
+      </c>
+      <c r="O6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.1</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.4</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -783,19 +810,19 @@
         <v>18</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -804,19 +831,22 @@
         <v>1</v>
       </c>
       <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.1</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.4</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -836,19 +866,19 @@
         <v>18</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -857,19 +887,22 @@
         <v>1</v>
       </c>
       <c r="N8">
+        <v>0.9</v>
+      </c>
+      <c r="O8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.1</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.4</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -889,19 +922,19 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -910,19 +943,22 @@
         <v>1</v>
       </c>
       <c r="N9">
+        <v>0.9</v>
+      </c>
+      <c r="O9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.1</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.4</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -942,19 +978,19 @@
         <v>18</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="J10">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -963,19 +999,22 @@
         <v>1</v>
       </c>
       <c r="N10">
+        <v>0.9</v>
+      </c>
+      <c r="O10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.1</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.4</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -995,19 +1034,19 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1016,15 +1055,18 @@
         <v>1</v>
       </c>
       <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="O11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.1</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.4</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>21</v>
       </c>
     </row>

--- a/需求响应/data/PrivateCar_example.xlsx
+++ b/需求响应/data/PrivateCar_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40C3744-7280-4230-AADF-CD3CB5DA32E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBC8A0F-349C-4781-BD06-16A1332ADA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6190" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,12 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
-  </si>
-  <si>
-    <t>0.8,0.9</t>
-  </si>
-  <si>
     <t>17,18,19,20,21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +110,14 @@
   </si>
   <si>
     <t>P_charge_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC_start_variance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,20 +443,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,34 +486,40 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
-        <v>22</v>
+      <c r="T1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -533,40 +542,46 @@
         <v>28</v>
       </c>
       <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
+        <v>0.05</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>72</v>
       </c>
-      <c r="K2">
-        <v>30</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
       <c r="M2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
         <v>0.9</v>
       </c>
-      <c r="O2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P2">
-        <v>0.1</v>
-      </c>
       <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>0.3</v>
+      </c>
+      <c r="S2">
         <v>0.4</v>
       </c>
-      <c r="R2" t="s">
-        <v>20</v>
+      <c r="T2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -580,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -589,42 +604,48 @@
         <v>28</v>
       </c>
       <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>72</v>
       </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
       <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0.3</v>
+      </c>
+      <c r="S3">
+        <v>0.4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0.9</v>
-      </c>
-      <c r="O3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P3">
-        <v>0.1</v>
-      </c>
-      <c r="Q3">
-        <v>0.4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4">
         <v>104</v>
@@ -636,51 +657,57 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>28</v>
       </c>
       <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
       </c>
       <c r="J4">
+        <v>0.05</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
         <v>72</v>
       </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
       <c r="M4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+      <c r="P4">
         <v>0.9</v>
       </c>
-      <c r="O4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P4">
-        <v>0.1</v>
-      </c>
       <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>0.3</v>
+      </c>
+      <c r="S4">
         <v>0.4</v>
       </c>
-      <c r="R4" t="s">
-        <v>20</v>
+      <c r="T4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>104</v>
@@ -692,51 +719,57 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>28</v>
       </c>
       <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>0.05</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>72</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <v>0.9</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0.3</v>
+      </c>
+      <c r="S5">
+        <v>0.4</v>
+      </c>
+      <c r="T5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>72</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0.9</v>
-      </c>
-      <c r="O5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.1</v>
-      </c>
-      <c r="Q5">
-        <v>0.4</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -748,51 +781,57 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>28</v>
       </c>
       <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0.6</v>
       </c>
       <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
         <v>72</v>
       </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
       <c r="M6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+      <c r="P6">
         <v>0.9</v>
       </c>
-      <c r="O6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P6">
-        <v>0.1</v>
-      </c>
       <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>0.3</v>
+      </c>
+      <c r="S6">
         <v>0.4</v>
       </c>
-      <c r="R6" t="s">
-        <v>20</v>
+      <c r="T6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>104</v>
@@ -804,51 +843,57 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>28</v>
       </c>
       <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>72</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.2</v>
+      </c>
+      <c r="P7">
+        <v>0.9</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0.3</v>
+      </c>
+      <c r="S7">
+        <v>0.4</v>
+      </c>
+      <c r="T7" t="s">
         <v>19</v>
       </c>
-      <c r="J7">
-        <v>72</v>
-      </c>
-      <c r="K7">
-        <v>30</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0.9</v>
-      </c>
-      <c r="O7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P7">
-        <v>0.1</v>
-      </c>
-      <c r="Q7">
-        <v>0.4</v>
-      </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
       </c>
       <c r="B8">
         <v>104</v>
@@ -860,51 +905,57 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>28</v>
       </c>
       <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0.6</v>
       </c>
       <c r="J8">
+        <v>0.05</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
         <v>72</v>
       </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
       <c r="M8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>0.2</v>
+      </c>
+      <c r="P8">
         <v>0.9</v>
       </c>
-      <c r="O8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
       <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>0.3</v>
+      </c>
+      <c r="S8">
         <v>0.4</v>
       </c>
-      <c r="R8" t="s">
-        <v>20</v>
+      <c r="T8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>104</v>
@@ -916,51 +967,57 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>28</v>
       </c>
       <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0.6</v>
+      </c>
+      <c r="J9">
+        <v>0.05</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>72</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>0.2</v>
+      </c>
+      <c r="P9">
+        <v>0.9</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0.3</v>
+      </c>
+      <c r="S9">
+        <v>0.4</v>
+      </c>
+      <c r="T9" t="s">
         <v>19</v>
       </c>
-      <c r="J9">
-        <v>72</v>
-      </c>
-      <c r="K9">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0.9</v>
-      </c>
-      <c r="O9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P9">
-        <v>0.1</v>
-      </c>
-      <c r="Q9">
-        <v>0.4</v>
-      </c>
-      <c r="R9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
       </c>
       <c r="B10">
         <v>104</v>
@@ -972,51 +1029,57 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>28</v>
       </c>
       <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0.6</v>
       </c>
       <c r="J10">
+        <v>0.05</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
         <v>72</v>
       </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
       <c r="M10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+      <c r="P10">
         <v>0.9</v>
       </c>
-      <c r="O10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P10">
-        <v>0.1</v>
-      </c>
       <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0.3</v>
+      </c>
+      <c r="S10">
         <v>0.4</v>
       </c>
-      <c r="R10" t="s">
-        <v>20</v>
+      <c r="T10" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>104</v>
@@ -1028,46 +1091,52 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>28</v>
       </c>
       <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>0.6</v>
+      </c>
+      <c r="J11">
+        <v>0.05</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>72</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0.2</v>
+      </c>
+      <c r="P11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>0.3</v>
+      </c>
+      <c r="S11">
+        <v>0.4</v>
+      </c>
+      <c r="T11" t="s">
         <v>19</v>
-      </c>
-      <c r="J11">
-        <v>72</v>
-      </c>
-      <c r="K11">
-        <v>30</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0.9</v>
-      </c>
-      <c r="O11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P11">
-        <v>0.1</v>
-      </c>
-      <c r="Q11">
-        <v>0.4</v>
-      </c>
-      <c r="R11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/需求响应/data/PrivateCar_example.xlsx
+++ b/需求响应/data/PrivateCar_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBC8A0F-349C-4781-BD06-16A1332ADA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC94B714-F592-4D76-8547-BA83ACCBCD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -530,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -569,7 +569,7 @@
         <v>0.9</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2">
         <v>0.3</v>
@@ -592,10 +592,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -631,7 +631,7 @@
         <v>0.9</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3">
         <v>0.3</v>
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -693,7 +693,7 @@
         <v>0.9</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4">
         <v>0.3</v>
@@ -716,10 +716,10 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -755,7 +755,7 @@
         <v>0.9</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5">
         <v>0.3</v>
@@ -778,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -817,7 +817,7 @@
         <v>0.9</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6">
         <v>0.3</v>
@@ -840,10 +840,10 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -879,7 +879,7 @@
         <v>0.9</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>0.3</v>
@@ -902,10 +902,10 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -941,7 +941,7 @@
         <v>0.9</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8">
         <v>0.3</v>
@@ -964,10 +964,10 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1003,7 +1003,7 @@
         <v>0.9</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9">
         <v>0.3</v>
@@ -1026,10 +1026,10 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1065,7 +1065,7 @@
         <v>0.9</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10">
         <v>0.3</v>
@@ -1088,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         <v>0.9</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>0.3</v>

--- a/需求响应/data/PrivateCar_example.xlsx
+++ b/需求响应/data/PrivateCar_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC94B714-F592-4D76-8547-BA83ACCBCD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C374B-AAE4-419C-A0C1-CDA41AD2AD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>SOC_start_variance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_discharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_discharge_variance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -455,9 +463,10 @@
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="15" max="16" width="12" customWidth="1"/>
     <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,22 +527,28 @@
       <c r="T1" t="s">
         <v>20</v>
       </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -560,19 +575,19 @@
         <v>6</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0.9</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R2">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>0.4</v>
@@ -580,22 +595,28 @@
       <c r="T2" t="s">
         <v>18</v>
       </c>
+      <c r="U2">
+        <v>60</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>61.9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -622,19 +643,19 @@
         <v>6</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>51.6</v>
       </c>
       <c r="O3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0.9</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>0.4</v>
@@ -642,22 +663,28 @@
       <c r="T3" t="s">
         <v>19</v>
       </c>
+      <c r="U3">
+        <v>51.6</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>76.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -684,19 +711,19 @@
         <v>6</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>76.8</v>
       </c>
       <c r="O4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0.9</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R4">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>0.4</v>
@@ -704,22 +731,28 @@
       <c r="T4" t="s">
         <v>18</v>
       </c>
+      <c r="U4">
+        <v>76.8</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -746,42 +779,48 @@
         <v>6</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0.9</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R5">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>0.4</v>
       </c>
       <c r="T5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>60</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>47.5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -808,19 +847,19 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0.9</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R6">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>0.4</v>
@@ -828,22 +867,28 @@
       <c r="T6" t="s">
         <v>18</v>
       </c>
+      <c r="U6">
+        <v>95</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="E7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -870,42 +915,48 @@
         <v>6</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="O7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0.9</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R7">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <v>0.4</v>
       </c>
       <c r="T7" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="U7">
+        <v>60</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>61.9</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -932,42 +983,48 @@
         <v>6</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>51.6</v>
       </c>
       <c r="O8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0.9</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>0.4</v>
       </c>
       <c r="T8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="U8">
+        <v>51.6</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>76.8</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -994,42 +1051,48 @@
         <v>6</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>76.8</v>
       </c>
       <c r="O9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0.9</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R9">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>0.4</v>
       </c>
       <c r="T9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="U9">
+        <v>76.8</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>61.9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1056,42 +1119,48 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>51.6</v>
       </c>
       <c r="O10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0.9</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R10">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>0.4</v>
       </c>
       <c r="T10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <v>51.6</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>104</v>
+        <v>47.5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="E11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1118,25 +1187,31 @@
         <v>6</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0.9</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R11">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>0.4</v>
       </c>
       <c r="T11" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="U11">
+        <v>95</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/需求响应/data/PrivateCar_example.xlsx
+++ b/需求响应/data/PrivateCar_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C374B-AAE4-419C-A0C1-CDA41AD2AD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57811A3B-D21D-4A3C-BA28-57BED0EA3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="Q2" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0.6</v>
@@ -572,7 +572,7 @@
         <v>72</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>60</v>
@@ -584,10 +584,10 @@
         <v>0.9</v>
       </c>
       <c r="Q2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <v>0.4</v>
@@ -625,7 +625,7 @@
         <v>28</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0.6</v>
@@ -640,7 +640,7 @@
         <v>72</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>51.6</v>
@@ -652,10 +652,10 @@
         <v>0.9</v>
       </c>
       <c r="Q3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3">
         <v>0.4</v>
@@ -693,7 +693,7 @@
         <v>28</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0.6</v>
@@ -708,7 +708,7 @@
         <v>72</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>76.8</v>
@@ -720,10 +720,10 @@
         <v>0.9</v>
       </c>
       <c r="Q4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>0.4</v>
@@ -761,7 +761,7 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0.6</v>
@@ -776,7 +776,7 @@
         <v>72</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>60</v>
@@ -788,10 +788,10 @@
         <v>0.9</v>
       </c>
       <c r="Q5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>0.4</v>
@@ -829,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0.6</v>
@@ -844,7 +844,7 @@
         <v>72</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>95</v>
@@ -856,10 +856,10 @@
         <v>0.9</v>
       </c>
       <c r="Q6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>0.4</v>
@@ -897,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0.6</v>
@@ -912,7 +912,7 @@
         <v>72</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>60</v>
@@ -924,10 +924,10 @@
         <v>0.9</v>
       </c>
       <c r="Q7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7">
         <v>0.4</v>
@@ -965,7 +965,7 @@
         <v>28</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0.6</v>
@@ -980,7 +980,7 @@
         <v>72</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>51.6</v>
@@ -992,10 +992,10 @@
         <v>0.9</v>
       </c>
       <c r="Q8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>0.4</v>
@@ -1033,7 +1033,7 @@
         <v>28</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0.6</v>
@@ -1048,7 +1048,7 @@
         <v>72</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>76.8</v>
@@ -1060,10 +1060,10 @@
         <v>0.9</v>
       </c>
       <c r="Q9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>0.4</v>
@@ -1101,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0.6</v>
@@ -1116,7 +1116,7 @@
         <v>72</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>51.6</v>
@@ -1128,10 +1128,10 @@
         <v>0.9</v>
       </c>
       <c r="Q10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>0.4</v>
@@ -1169,7 +1169,7 @@
         <v>28</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0.6</v>
@@ -1184,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>95</v>
@@ -1196,10 +1196,10 @@
         <v>0.9</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>0.4</v>
